--- a/data/R_data.xlsx
+++ b/data/R_data.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F321D2B-4B9D-4880-96B0-E88E8A7986AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04ED8E23-B2BC-421D-AA28-966C1D21AD5B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,76 +20,98 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>City_name</t>
-  </si>
-  <si>
-    <t>Population</t>
-  </si>
-  <si>
-    <t>Patents_submitted</t>
-  </si>
-  <si>
-    <t>Patents_granted</t>
-  </si>
-  <si>
-    <t>Flats_given_for_rental_or_sell</t>
-  </si>
-  <si>
-    <t>Avg_flat_price</t>
-  </si>
-  <si>
-    <t>Students_count</t>
-  </si>
-  <si>
-    <t>Universities_count</t>
-  </si>
-  <si>
-    <t>Wrocław</t>
-  </si>
-  <si>
-    <t>Toruń</t>
-  </si>
-  <si>
-    <t>Lublin</t>
-  </si>
-  <si>
-    <t>Zielona Góra</t>
-  </si>
-  <si>
-    <t>Łódź</t>
-  </si>
-  <si>
-    <t>Kraków</t>
-  </si>
-  <si>
-    <t>Warszawa</t>
-  </si>
-  <si>
-    <t>Gdańsk</t>
-  </si>
-  <si>
-    <t>Katowice</t>
-  </si>
-  <si>
-    <t>Poznań</t>
-  </si>
-  <si>
-    <t>Szczecin</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t>DOLNOŚLĄSKIE</t>
+  </si>
+  <si>
+    <t>KUJAWSKO-POMORSKIE</t>
+  </si>
+  <si>
+    <t>LUBELSKIE</t>
+  </si>
+  <si>
+    <t>LUBUSKIE</t>
+  </si>
+  <si>
+    <t>ŁÓDZKIE</t>
+  </si>
+  <si>
+    <t>MAŁOPOLSKIE</t>
+  </si>
+  <si>
+    <t>MAZOWIECKIE</t>
+  </si>
+  <si>
+    <t>OPOLSKIE</t>
+  </si>
+  <si>
+    <t>PODKARPACKIE</t>
+  </si>
+  <si>
+    <t>PODLASKIE</t>
+  </si>
+  <si>
+    <t>POMORSKIE</t>
+  </si>
+  <si>
+    <t>ŚLĄSKIE</t>
+  </si>
+  <si>
+    <t>ŚWIĘTOKRZYSKIE</t>
+  </si>
+  <si>
+    <t>WARMIŃSKO-MAZURSKIE</t>
+  </si>
+  <si>
+    <t>WIELKOPOLSKIE</t>
+  </si>
+  <si>
+    <t>ZACHODNIOPOMORSKIE</t>
+  </si>
+  <si>
+    <t>doch_budzet</t>
+  </si>
+  <si>
+    <t>wyniki_fin_przed</t>
+  </si>
+  <si>
+    <t>zgloszenia_uprp</t>
+  </si>
+  <si>
+    <t>udzielone_uprp</t>
+  </si>
+  <si>
+    <t>uczelnie</t>
+  </si>
+  <si>
+    <t>studenci</t>
+  </si>
+  <si>
+    <t>styp_rektora</t>
+  </si>
+  <si>
+    <t>voivodeship</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.#0"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -109,16 +131,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -396,341 +422,468 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="50" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>674079</v>
-      </c>
-      <c r="C2" s="2">
-        <v>127</v>
-      </c>
-      <c r="D2" s="2">
-        <v>152</v>
-      </c>
-      <c r="E2" s="2">
-        <v>8752</v>
-      </c>
-      <c r="F2" s="2">
-        <v>496838</v>
-      </c>
-      <c r="G2" s="2">
-        <v>25</v>
-      </c>
-      <c r="H2" s="2">
-        <v>105103</v>
+        <v>1601576666.0599999</v>
+      </c>
+      <c r="C2" s="3">
+        <v>3802988</v>
+      </c>
+      <c r="D2" s="3">
+        <v>254</v>
+      </c>
+      <c r="E2" s="3">
+        <v>332</v>
+      </c>
+      <c r="F2" s="3">
+        <v>33</v>
+      </c>
+      <c r="G2" s="3">
+        <v>116342</v>
+      </c>
+      <c r="H2" s="4">
+        <v>8718</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>195690</v>
-      </c>
-      <c r="C3" s="2">
-        <v>38</v>
-      </c>
-      <c r="D3" s="2">
-        <v>26</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1669</v>
-      </c>
-      <c r="F3" s="2">
-        <v>371194</v>
-      </c>
-      <c r="G3" s="2">
-        <v>4</v>
-      </c>
-      <c r="H3" s="2">
-        <v>26298</v>
+        <v>1319534072.8499999</v>
+      </c>
+      <c r="C3" s="3">
+        <v>757806</v>
+      </c>
+      <c r="D3" s="3">
+        <v>103</v>
+      </c>
+      <c r="E3" s="3">
+        <v>101</v>
+      </c>
+      <c r="F3" s="3">
+        <v>16</v>
+      </c>
+      <c r="G3" s="3">
+        <v>54136</v>
+      </c>
+      <c r="H3" s="4">
+        <v>4501</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>331243</v>
-      </c>
-      <c r="C4" s="2">
-        <v>293</v>
-      </c>
-      <c r="D4" s="2">
-        <v>139</v>
-      </c>
-      <c r="E4" s="2">
-        <v>2609</v>
-      </c>
-      <c r="F4" s="2">
-        <v>404218</v>
-      </c>
-      <c r="G4" s="2">
-        <v>9</v>
-      </c>
-      <c r="H4" s="2">
-        <v>58196</v>
+        <v>1364764031.97</v>
+      </c>
+      <c r="C4" s="3">
+        <v>154104</v>
+      </c>
+      <c r="D4" s="3">
+        <v>254</v>
+      </c>
+      <c r="E4" s="3">
+        <v>274</v>
+      </c>
+      <c r="F4" s="3">
+        <v>15</v>
+      </c>
+      <c r="G4" s="3">
+        <v>67334</v>
+      </c>
+      <c r="H4" s="4">
+        <v>5938</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>139278</v>
-      </c>
-      <c r="C5" s="2">
-        <v>23</v>
-      </c>
-      <c r="D5" s="2">
-        <v>15</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1570</v>
-      </c>
-      <c r="F5" s="2">
-        <v>321137</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2">
-        <v>8714</v>
+        <v>618176624.50999999</v>
+      </c>
+      <c r="C5" s="3">
+        <v>85884</v>
+      </c>
+      <c r="D5" s="3">
+        <v>35</v>
+      </c>
+      <c r="E5" s="3">
+        <v>35</v>
+      </c>
+      <c r="F5" s="3">
+        <v>5</v>
+      </c>
+      <c r="G5" s="3">
+        <v>12284</v>
+      </c>
+      <c r="H5" s="4">
+        <v>797</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>658444</v>
-      </c>
-      <c r="C6" s="2">
-        <v>184</v>
-      </c>
-      <c r="D6" s="2">
-        <v>112</v>
-      </c>
-      <c r="E6" s="2">
-        <v>5198</v>
-      </c>
-      <c r="F6" s="2">
-        <v>328580</v>
-      </c>
-      <c r="G6" s="2">
-        <v>18</v>
-      </c>
-      <c r="H6" s="2">
-        <v>64533</v>
+        <v>1244966220.25</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1403545</v>
+      </c>
+      <c r="D6" s="3">
+        <v>187</v>
+      </c>
+      <c r="E6" s="3">
+        <v>227</v>
+      </c>
+      <c r="F6" s="3">
+        <v>19</v>
+      </c>
+      <c r="G6" s="3">
+        <v>71038</v>
+      </c>
+      <c r="H6" s="4">
+        <v>5758</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>803282</v>
-      </c>
-      <c r="C7" s="2">
-        <v>242</v>
-      </c>
-      <c r="D7" s="2">
-        <v>154</v>
-      </c>
-      <c r="E7" s="2">
-        <v>10130</v>
-      </c>
-      <c r="F7" s="2">
-        <v>540894</v>
-      </c>
-      <c r="G7" s="2">
-        <v>17</v>
-      </c>
-      <c r="H7" s="2">
-        <v>129357</v>
+        <v>2012137514.3099999</v>
+      </c>
+      <c r="C7" s="3">
+        <v>10340292</v>
+      </c>
+      <c r="D7" s="3">
+        <v>345</v>
+      </c>
+      <c r="E7" s="3">
+        <v>364</v>
+      </c>
+      <c r="F7" s="3">
+        <v>26</v>
+      </c>
+      <c r="G7" s="3">
+        <v>147256</v>
+      </c>
+      <c r="H7" s="4">
+        <v>11604</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>1861975</v>
-      </c>
-      <c r="C8" s="2">
-        <v>411</v>
-      </c>
-      <c r="D8" s="2">
-        <v>282</v>
-      </c>
-      <c r="E8" s="2">
-        <v>14308</v>
-      </c>
-      <c r="F8" s="2">
-        <v>705829</v>
-      </c>
-      <c r="G8" s="2">
-        <v>64</v>
-      </c>
-      <c r="H8" s="2">
-        <v>238402</v>
+        <v>3945568544.3699999</v>
+      </c>
+      <c r="C8" s="3">
+        <v>42027417</v>
+      </c>
+      <c r="D8" s="3">
+        <v>699</v>
+      </c>
+      <c r="E8" s="3">
+        <v>562</v>
+      </c>
+      <c r="F8" s="3">
+        <v>82</v>
+      </c>
+      <c r="G8" s="3">
+        <v>254654</v>
+      </c>
+      <c r="H8" s="4">
+        <v>18554</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>486345</v>
-      </c>
-      <c r="C9" s="2">
-        <v>9</v>
-      </c>
-      <c r="D9" s="2">
-        <v>90</v>
-      </c>
-      <c r="E9" s="2">
-        <v>6878</v>
-      </c>
-      <c r="F9" s="2">
-        <v>521704</v>
-      </c>
-      <c r="G9" s="2">
-        <v>13</v>
-      </c>
-      <c r="H9" s="2">
-        <v>67196</v>
+        <v>628499786.65999997</v>
+      </c>
+      <c r="C9" s="3">
+        <v>175955</v>
+      </c>
+      <c r="D9" s="3">
+        <v>35</v>
+      </c>
+      <c r="E9" s="3">
+        <v>76</v>
+      </c>
+      <c r="F9" s="3">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3">
+        <v>21016</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1479</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>280190</v>
-      </c>
-      <c r="C10" s="2">
-        <v>89</v>
-      </c>
-      <c r="D10" s="2">
-        <v>69</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1751</v>
-      </c>
-      <c r="F10" s="2">
-        <v>333707</v>
-      </c>
-      <c r="G10" s="2">
-        <v>11</v>
-      </c>
-      <c r="H10" s="2">
-        <v>50866</v>
+        <v>1341124503.2</v>
+      </c>
+      <c r="C10" s="3">
+        <v>394095</v>
+      </c>
+      <c r="D10" s="3">
+        <v>187</v>
+      </c>
+      <c r="E10" s="3">
+        <v>173</v>
+      </c>
+      <c r="F10" s="3">
+        <v>14</v>
+      </c>
+      <c r="G10" s="3">
+        <v>45379</v>
+      </c>
+      <c r="H10" s="4">
+        <v>4264</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>541316</v>
-      </c>
-      <c r="C11" s="2">
-        <v>187</v>
-      </c>
-      <c r="D11" s="2">
-        <v>121</v>
-      </c>
-      <c r="E11" s="2">
-        <v>4896</v>
-      </c>
-      <c r="F11" s="2">
-        <v>456825</v>
-      </c>
-      <c r="G11" s="2">
-        <v>22</v>
-      </c>
-      <c r="H11" s="2">
-        <v>101108</v>
+        <v>696446528.12</v>
+      </c>
+      <c r="C11" s="3">
+        <v>31707</v>
+      </c>
+      <c r="D11" s="3">
+        <v>71</v>
+      </c>
+      <c r="E11" s="3">
+        <v>66</v>
+      </c>
+      <c r="F11" s="3">
+        <v>14</v>
+      </c>
+      <c r="G11" s="3">
+        <v>28856</v>
+      </c>
+      <c r="H11" s="4">
+        <v>2558</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>391566</v>
-      </c>
-      <c r="C12" s="2">
-        <v>97</v>
-      </c>
-      <c r="D12" s="2">
-        <v>50</v>
-      </c>
-      <c r="E12" s="2">
-        <v>2108</v>
-      </c>
-      <c r="F12" s="2">
-        <v>400788</v>
-      </c>
-      <c r="G12" s="2">
-        <v>10</v>
-      </c>
-      <c r="H12" s="2">
-        <v>29699</v>
+        <v>1250090540.6800001</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2088483</v>
+      </c>
+      <c r="D12" s="3">
+        <v>192</v>
+      </c>
+      <c r="E12" s="3">
+        <v>119</v>
+      </c>
+      <c r="F12" s="3">
+        <v>24</v>
+      </c>
+      <c r="G12" s="3">
+        <v>86915</v>
+      </c>
+      <c r="H12" s="4">
+        <v>7265</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2192084985.9000001</v>
+      </c>
+      <c r="C13" s="3">
+        <v>3795295</v>
+      </c>
+      <c r="D13" s="3">
+        <v>443</v>
+      </c>
+      <c r="E13" s="3">
+        <v>413</v>
+      </c>
+      <c r="F13" s="3">
+        <v>31</v>
+      </c>
+      <c r="G13" s="3">
+        <v>115701</v>
+      </c>
+      <c r="H13" s="4">
+        <v>6976</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <v>632462400.91999996</v>
+      </c>
+      <c r="C14" s="3">
+        <v>34006</v>
+      </c>
+      <c r="D14" s="3">
+        <v>71</v>
+      </c>
+      <c r="E14" s="3">
+        <v>59</v>
+      </c>
+      <c r="F14" s="3">
+        <v>11</v>
+      </c>
+      <c r="G14" s="3">
+        <v>19759</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2">
+        <v>901153017.09000003</v>
+      </c>
+      <c r="C15" s="3">
+        <v>86008</v>
+      </c>
+      <c r="D15" s="3">
+        <v>54</v>
+      </c>
+      <c r="E15" s="3">
+        <v>37</v>
+      </c>
+      <c r="F15" s="3">
+        <v>6</v>
+      </c>
+      <c r="G15" s="3">
+        <v>23733</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1932661524.0699999</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2200648</v>
+      </c>
+      <c r="D16" s="3">
+        <v>304</v>
+      </c>
+      <c r="E16" s="3">
+        <v>267</v>
+      </c>
+      <c r="F16" s="3">
+        <v>32</v>
+      </c>
+      <c r="G16" s="3">
+        <v>115381</v>
+      </c>
+      <c r="H16" s="4">
+        <v>10848</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1145311241.4000001</v>
+      </c>
+      <c r="C17" s="3">
+        <v>285277</v>
+      </c>
+      <c r="D17" s="3">
+        <v>143</v>
+      </c>
+      <c r="E17" s="3">
+        <v>139</v>
+      </c>
+      <c r="F17" s="3">
+        <v>14</v>
+      </c>
+      <c r="G17" s="3">
+        <v>36254</v>
+      </c>
+      <c r="H17" s="4">
+        <v>3184</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <customProperties>
-    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId2"/>
+    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId1"/>
   </customProperties>
 </worksheet>
 </file>
--- a/data/R_data.xlsx
+++ b/data/R_data.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04ED8E23-B2BC-421D-AA28-966C1D21AD5B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605BE594-BCED-4E9E-A8E5-EA3AC8763E87}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -70,28 +70,28 @@
     <t>ZACHODNIOPOMORSKIE</t>
   </si>
   <si>
-    <t>doch_budzet</t>
-  </si>
-  <si>
-    <t>wyniki_fin_przed</t>
-  </si>
-  <si>
-    <t>zgloszenia_uprp</t>
-  </si>
-  <si>
-    <t>udzielone_uprp</t>
-  </si>
-  <si>
-    <t>uczelnie</t>
-  </si>
-  <si>
-    <t>studenci</t>
-  </si>
-  <si>
-    <t>styp_rektora</t>
-  </si>
-  <si>
-    <t>voivodeship</t>
+    <t>wojewodztwo</t>
+  </si>
+  <si>
+    <t>doch_bud</t>
+  </si>
+  <si>
+    <t>sr_cena_1m2</t>
+  </si>
+  <si>
+    <t>miesz_oddane</t>
+  </si>
+  <si>
+    <t>biblioteki_pub</t>
+  </si>
+  <si>
+    <t>muzea</t>
+  </si>
+  <si>
+    <t>przec_wydatki_1os</t>
+  </si>
+  <si>
+    <t>imprezy_rozryw</t>
   </si>
 </sst>
 </file>
@@ -101,7 +101,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.#0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +112,12 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="2">
@@ -131,20 +137,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Normalny 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Normalny 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -422,46 +431,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Arkusz1"/>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
         <v>23</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -472,22 +484,22 @@
         <v>1601576666.0599999</v>
       </c>
       <c r="C2" s="3">
-        <v>3802988</v>
-      </c>
-      <c r="D2" s="3">
-        <v>254</v>
-      </c>
-      <c r="E2" s="3">
-        <v>332</v>
-      </c>
-      <c r="F2" s="3">
-        <v>33</v>
-      </c>
-      <c r="G2" s="3">
-        <v>116342</v>
-      </c>
-      <c r="H2" s="4">
-        <v>8718</v>
+        <v>6062</v>
+      </c>
+      <c r="D2" s="4">
+        <v>24975</v>
+      </c>
+      <c r="E2">
+        <v>577</v>
+      </c>
+      <c r="F2">
+        <v>68</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1560.59</v>
+      </c>
+      <c r="H2">
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -498,22 +510,22 @@
         <v>1319534072.8499999</v>
       </c>
       <c r="C3" s="3">
-        <v>757806</v>
-      </c>
-      <c r="D3" s="3">
-        <v>103</v>
-      </c>
-      <c r="E3" s="3">
-        <v>101</v>
-      </c>
-      <c r="F3" s="3">
-        <v>16</v>
-      </c>
-      <c r="G3" s="3">
-        <v>54136</v>
-      </c>
-      <c r="H3" s="4">
-        <v>4501</v>
+        <v>5117</v>
+      </c>
+      <c r="D3" s="4">
+        <v>9798</v>
+      </c>
+      <c r="E3">
+        <v>389</v>
+      </c>
+      <c r="F3">
+        <v>46</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1251.97</v>
+      </c>
+      <c r="H3">
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -524,22 +536,22 @@
         <v>1364764031.97</v>
       </c>
       <c r="C4" s="3">
-        <v>154104</v>
-      </c>
-      <c r="D4" s="3">
-        <v>254</v>
-      </c>
-      <c r="E4" s="3">
-        <v>274</v>
-      </c>
-      <c r="F4" s="3">
-        <v>15</v>
-      </c>
-      <c r="G4" s="3">
-        <v>67334</v>
-      </c>
-      <c r="H4" s="4">
-        <v>5938</v>
+        <v>5888</v>
+      </c>
+      <c r="D4" s="4">
+        <v>9070</v>
+      </c>
+      <c r="E4">
+        <v>563</v>
+      </c>
+      <c r="F4">
+        <v>56</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1245.77</v>
+      </c>
+      <c r="H4">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -550,22 +562,22 @@
         <v>618176624.50999999</v>
       </c>
       <c r="C5" s="3">
-        <v>85884</v>
-      </c>
-      <c r="D5" s="3">
-        <v>35</v>
-      </c>
-      <c r="E5" s="3">
-        <v>35</v>
-      </c>
-      <c r="F5" s="3">
-        <v>5</v>
-      </c>
-      <c r="G5" s="3">
-        <v>12284</v>
-      </c>
-      <c r="H5" s="4">
-        <v>797</v>
+        <v>4109</v>
+      </c>
+      <c r="D5" s="4">
+        <v>5079</v>
+      </c>
+      <c r="E5">
+        <v>241</v>
+      </c>
+      <c r="F5">
+        <v>17</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1300.27</v>
+      </c>
+      <c r="H5">
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -576,22 +588,22 @@
         <v>1244966220.25</v>
       </c>
       <c r="C6" s="3">
-        <v>1403545</v>
-      </c>
-      <c r="D6" s="3">
-        <v>187</v>
-      </c>
-      <c r="E6" s="3">
-        <v>227</v>
-      </c>
-      <c r="F6" s="3">
-        <v>19</v>
-      </c>
-      <c r="G6" s="3">
-        <v>71038</v>
-      </c>
-      <c r="H6" s="4">
-        <v>5758</v>
+        <v>5595</v>
+      </c>
+      <c r="D6" s="4">
+        <v>12052</v>
+      </c>
+      <c r="E6">
+        <v>467</v>
+      </c>
+      <c r="F6">
+        <v>45</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1354.27</v>
+      </c>
+      <c r="H6">
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -602,22 +614,22 @@
         <v>2012137514.3099999</v>
       </c>
       <c r="C7" s="3">
-        <v>10340292</v>
-      </c>
-      <c r="D7" s="3">
-        <v>345</v>
-      </c>
-      <c r="E7" s="3">
-        <v>364</v>
-      </c>
-      <c r="F7" s="3">
-        <v>26</v>
-      </c>
-      <c r="G7" s="3">
-        <v>147256</v>
-      </c>
-      <c r="H7" s="4">
-        <v>11604</v>
+        <v>8036</v>
+      </c>
+      <c r="D7" s="4">
+        <v>21923</v>
+      </c>
+      <c r="E7">
+        <v>708</v>
+      </c>
+      <c r="F7">
+        <v>105</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1085.43</v>
+      </c>
+      <c r="H7">
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -628,22 +640,22 @@
         <v>3945568544.3699999</v>
       </c>
       <c r="C8" s="3">
-        <v>42027417</v>
-      </c>
-      <c r="D8" s="3">
-        <v>699</v>
-      </c>
-      <c r="E8" s="3">
-        <v>562</v>
-      </c>
-      <c r="F8" s="3">
-        <v>82</v>
-      </c>
-      <c r="G8" s="3">
-        <v>254654</v>
-      </c>
-      <c r="H8" s="4">
-        <v>18554</v>
+        <v>8379</v>
+      </c>
+      <c r="D8" s="4">
+        <v>44385</v>
+      </c>
+      <c r="E8">
+        <v>941</v>
+      </c>
+      <c r="F8">
+        <v>143</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1508.28</v>
+      </c>
+      <c r="H8">
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -654,22 +666,22 @@
         <v>628499786.65999997</v>
       </c>
       <c r="C9" s="3">
-        <v>175955</v>
-      </c>
-      <c r="D9" s="3">
-        <v>35</v>
-      </c>
-      <c r="E9" s="3">
-        <v>76</v>
-      </c>
-      <c r="F9" s="3">
-        <v>5</v>
-      </c>
-      <c r="G9" s="3">
-        <v>21016</v>
-      </c>
-      <c r="H9" s="4">
-        <v>1479</v>
+        <v>4027</v>
+      </c>
+      <c r="D9" s="4">
+        <v>3410</v>
+      </c>
+      <c r="E9">
+        <v>302</v>
+      </c>
+      <c r="F9">
+        <v>17</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1367.03</v>
+      </c>
+      <c r="H9">
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -680,22 +692,22 @@
         <v>1341124503.2</v>
       </c>
       <c r="C10" s="3">
-        <v>394095</v>
-      </c>
-      <c r="D10" s="3">
-        <v>187</v>
-      </c>
-      <c r="E10" s="3">
-        <v>173</v>
-      </c>
-      <c r="F10" s="3">
-        <v>14</v>
-      </c>
-      <c r="G10" s="3">
-        <v>45379</v>
-      </c>
-      <c r="H10" s="4">
-        <v>4264</v>
+        <v>5368</v>
+      </c>
+      <c r="D10" s="4">
+        <v>9904</v>
+      </c>
+      <c r="E10">
+        <v>665</v>
+      </c>
+      <c r="F10">
+        <v>60</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1005.36</v>
+      </c>
+      <c r="H10">
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -706,22 +718,22 @@
         <v>696446528.12</v>
       </c>
       <c r="C11" s="3">
-        <v>31707</v>
-      </c>
-      <c r="D11" s="3">
-        <v>71</v>
-      </c>
-      <c r="E11" s="3">
-        <v>66</v>
-      </c>
-      <c r="F11" s="3">
-        <v>14</v>
-      </c>
-      <c r="G11" s="3">
-        <v>28856</v>
-      </c>
-      <c r="H11" s="4">
-        <v>2558</v>
+        <v>5688</v>
+      </c>
+      <c r="D11" s="4">
+        <v>7733</v>
+      </c>
+      <c r="E11">
+        <v>226</v>
+      </c>
+      <c r="F11">
+        <v>22</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1099.98</v>
+      </c>
+      <c r="H11">
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -732,22 +744,22 @@
         <v>1250090540.6800001</v>
       </c>
       <c r="C12" s="3">
-        <v>2088483</v>
-      </c>
-      <c r="D12" s="3">
-        <v>192</v>
-      </c>
-      <c r="E12" s="3">
-        <v>119</v>
-      </c>
-      <c r="F12" s="3">
-        <v>24</v>
-      </c>
-      <c r="G12" s="3">
-        <v>86915</v>
-      </c>
-      <c r="H12" s="4">
-        <v>7265</v>
+        <v>7493</v>
+      </c>
+      <c r="D12" s="4">
+        <v>21765</v>
+      </c>
+      <c r="E12">
+        <v>316</v>
+      </c>
+      <c r="F12">
+        <v>89</v>
+      </c>
+      <c r="G12" s="5">
+        <v>1468.67</v>
+      </c>
+      <c r="H12">
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -758,22 +770,22 @@
         <v>2192084985.9000001</v>
       </c>
       <c r="C13" s="3">
-        <v>3795295</v>
-      </c>
-      <c r="D13" s="3">
-        <v>443</v>
-      </c>
-      <c r="E13" s="3">
-        <v>413</v>
-      </c>
-      <c r="F13" s="3">
-        <v>31</v>
-      </c>
-      <c r="G13" s="3">
-        <v>115701</v>
-      </c>
-      <c r="H13" s="4">
-        <v>6976</v>
+        <v>4473</v>
+      </c>
+      <c r="D13" s="4">
+        <v>16972</v>
+      </c>
+      <c r="E13">
+        <v>753</v>
+      </c>
+      <c r="F13">
+        <v>82</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1421.34</v>
+      </c>
+      <c r="H13">
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -784,22 +796,22 @@
         <v>632462400.91999996</v>
       </c>
       <c r="C14" s="3">
-        <v>34006</v>
-      </c>
-      <c r="D14" s="3">
-        <v>71</v>
-      </c>
-      <c r="E14" s="3">
-        <v>59</v>
-      </c>
-      <c r="F14" s="3">
-        <v>11</v>
-      </c>
-      <c r="G14" s="3">
-        <v>19759</v>
-      </c>
-      <c r="H14" s="4">
-        <v>1778</v>
+        <v>5101</v>
+      </c>
+      <c r="D14" s="4">
+        <v>4525</v>
+      </c>
+      <c r="E14">
+        <v>255</v>
+      </c>
+      <c r="F14">
+        <v>32</v>
+      </c>
+      <c r="G14" s="5">
+        <v>1076.5</v>
+      </c>
+      <c r="H14">
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -810,22 +822,22 @@
         <v>901153017.09000003</v>
       </c>
       <c r="C15" s="3">
-        <v>86008</v>
-      </c>
-      <c r="D15" s="3">
-        <v>54</v>
-      </c>
-      <c r="E15" s="3">
-        <v>37</v>
-      </c>
-      <c r="F15" s="3">
-        <v>6</v>
-      </c>
-      <c r="G15" s="3">
-        <v>23733</v>
-      </c>
-      <c r="H15" s="4">
-        <v>1934</v>
+        <v>4790</v>
+      </c>
+      <c r="D15" s="4">
+        <v>5884</v>
+      </c>
+      <c r="E15">
+        <v>289</v>
+      </c>
+      <c r="F15">
+        <v>31</v>
+      </c>
+      <c r="G15" s="5">
+        <v>1221.07</v>
+      </c>
+      <c r="H15">
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -836,22 +848,22 @@
         <v>1932661524.0699999</v>
       </c>
       <c r="C16" s="3">
-        <v>2200648</v>
-      </c>
-      <c r="D16" s="3">
-        <v>304</v>
-      </c>
-      <c r="E16" s="3">
-        <v>267</v>
-      </c>
-      <c r="F16" s="3">
-        <v>32</v>
-      </c>
-      <c r="G16" s="3">
-        <v>115381</v>
-      </c>
-      <c r="H16" s="4">
-        <v>10848</v>
+        <v>5354</v>
+      </c>
+      <c r="D16" s="4">
+        <v>27095</v>
+      </c>
+      <c r="E16">
+        <v>652</v>
+      </c>
+      <c r="F16">
+        <v>88</v>
+      </c>
+      <c r="G16" s="5">
+        <v>1248.43</v>
+      </c>
+      <c r="H16">
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -862,28 +874,29 @@
         <v>1145311241.4000001</v>
       </c>
       <c r="C17" s="3">
-        <v>285277</v>
-      </c>
-      <c r="D17" s="3">
-        <v>143</v>
-      </c>
-      <c r="E17" s="3">
-        <v>139</v>
-      </c>
-      <c r="F17" s="3">
-        <v>14</v>
-      </c>
-      <c r="G17" s="3">
-        <v>36254</v>
-      </c>
-      <c r="H17" s="4">
-        <v>3184</v>
+        <v>5497</v>
+      </c>
+      <c r="D17" s="4">
+        <v>10110</v>
+      </c>
+      <c r="E17">
+        <v>349</v>
+      </c>
+      <c r="F17">
+        <v>38</v>
+      </c>
+      <c r="G17" s="5">
+        <v>1289.28</v>
+      </c>
+      <c r="H17">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <customProperties>
-    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId1"/>
+    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId2"/>
   </customProperties>
 </worksheet>
 </file>